--- a/mf-intelligence/data/processed/quant/quant_Momentum_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Momentum_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Jan_2026</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nov_2025</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Oct_2025</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>INE202B01038</t>
+          <t>INE090A01021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piramal Finance Ltd</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -492,30 +492,30 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>9.898523000000001</v>
+        <v>9.564712</v>
       </c>
       <c r="E2" t="n">
-        <v>9.044435999999999</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.050034999999999</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8540870000000016</v>
+        <v>9.564712</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8484880000000015</v>
+        <v>9.564712</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE040A01034</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,30 +524,30 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9.170431000000001</v>
+        <v>8.956498</v>
       </c>
       <c r="E3" t="n">
-        <v>4.216446</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>4.50724</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.953985</v>
+        <v>8.956498</v>
       </c>
       <c r="H3" t="n">
-        <v>4.663191</v>
+        <v>8.956498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Samvardhana Motherson International Ltd</t>
+          <t>Adani Enterprises Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,30 +556,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7.212751</v>
+        <v>8.873132999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>3.878306</v>
+        <v>9.170431000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>3.452509</v>
+        <v>4.216446</v>
       </c>
       <c r="G4" t="n">
-        <v>3.334445</v>
+        <v>-0.2972980000000014</v>
       </c>
       <c r="H4" t="n">
-        <v>3.760242</v>
+        <v>4.656686999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INE364U01010</t>
+          <t>INE202B01038</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Adani Green Energy Limited</t>
+          <t>Piramal Finance Ltd</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,30 +588,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.487632</v>
+        <v>8.520021</v>
       </c>
       <c r="E5" t="n">
-        <v>8.031215</v>
+        <v>9.898523000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>8.581283000000001</v>
+        <v>9.044435999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.543583</v>
+        <v>-1.378502000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.093651000000001</v>
+        <v>-0.5244149999999994</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE406A01037</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>Aurobindo Pharma Limited</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,30 +620,30 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.482575</v>
+        <v>6.533598</v>
       </c>
       <c r="E6" t="n">
-        <v>6.614819</v>
+        <v>5.966757</v>
       </c>
       <c r="F6" t="n">
-        <v>6.791959</v>
+        <v>5.997543</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.132244</v>
+        <v>0.5668409999999993</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3093840000000005</v>
+        <v>0.5360549999999993</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE406A01037</t>
+          <t>INE364U01010</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aurobindo Pharma Limited</t>
+          <t>Adani Green Energy Limited</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,19 +652,19 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.966757</v>
+        <v>5.842646</v>
       </c>
       <c r="E7" t="n">
-        <v>5.997543</v>
+        <v>6.487632</v>
       </c>
       <c r="F7" t="n">
-        <v>5.470548</v>
+        <v>8.031215</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03078599999999998</v>
+        <v>-0.6449859999999994</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4962090000000003</v>
+        <v>-2.188568999999999</v>
       </c>
     </row>
     <row r="8">
@@ -684,30 +684,30 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>5.796873</v>
+      </c>
+      <c r="E8" t="n">
         <v>5.543845</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.477494</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.152885</v>
-      </c>
       <c r="G8" t="n">
-        <v>0.06635100000000005</v>
+        <v>0.2530279999999996</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3909599999999998</v>
+        <v>0.3193789999999996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE917I01010</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>Bajaj Auto Limited</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -716,30 +716,30 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3.701086</v>
+        <v>3.971147</v>
       </c>
       <c r="E9" t="n">
-        <v>3.462638</v>
+        <v>3.604163</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>3.392926</v>
       </c>
       <c r="G9" t="n">
-        <v>0.238448</v>
+        <v>0.3669840000000004</v>
       </c>
       <c r="H9" t="n">
-        <v>3.701086</v>
+        <v>0.5782210000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE237A01036</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -748,30 +748,30 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3.680464</v>
+        <v>3.67925</v>
       </c>
       <c r="E10" t="n">
-        <v>5.204439</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7.396243</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.523975</v>
+        <v>3.67925</v>
       </c>
       <c r="H10" t="n">
-        <v>-3.715779</v>
+        <v>3.67925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE917I01010</t>
+          <t>INE200M01039</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bajaj Auto Limited</t>
+          <t>Varun Beverages Limited</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -780,30 +780,30 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3.604163</v>
+        <v>2.929109</v>
       </c>
       <c r="E11" t="n">
-        <v>3.392926</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3.266884</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2112369999999997</v>
+        <v>2.929109</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3372789999999997</v>
+        <v>2.929109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE094A01015</t>
+          <t>INE522F01014</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hindustan Petroleum Corporation Ltd</t>
+          <t>Coal India Ltd</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2.976955</v>
+        <v>2.211141</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -821,21 +821,21 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.976955</v>
+        <v>2.211141</v>
       </c>
       <c r="H12" t="n">
-        <v>2.976955</v>
+        <v>2.211141</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE280A01028</t>
+          <t>INE417T01026</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Titan Company Limited</t>
+          <t>PB Fintech Limited</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2.93265</v>
+        <v>1.753087</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -853,21 +853,21 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.93265</v>
+        <v>1.753087</v>
       </c>
       <c r="H13" t="n">
-        <v>2.93265</v>
+        <v>1.753087</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE075A01022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Ltd</t>
+          <t>Wipro Ltd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -876,30 +876,30 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.687128</v>
+        <v>1.452308</v>
       </c>
       <c r="E14" t="n">
-        <v>1.608529</v>
+        <v>1.504776</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07859899999999986</v>
+        <v>-0.05246799999999996</v>
       </c>
       <c r="H14" t="n">
-        <v>1.687128</v>
+        <v>1.452308</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INE075A01022</t>
+          <t>INE127D01025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wipro Ltd</t>
+          <t>HDFC Asset Management Company Ltd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.504776</v>
+        <v>1.256642</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -917,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.504776</v>
+        <v>1.256642</v>
       </c>
       <c r="H15" t="n">
-        <v>1.504776</v>
+        <v>1.256642</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INE030A01027</t>
+          <t>INE259A01022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Hindustan Unilever Limited</t>
+          <t>Colgate-Palmolive (India) Ltd</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.46324</v>
+        <v>0.897848</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -949,21 +949,21 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.46324</v>
+        <v>0.897848</v>
       </c>
       <c r="H16" t="n">
-        <v>1.46324</v>
+        <v>0.897848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>Samvardhana Motherson International Ltd</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -972,30 +972,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.749743</v>
+        <v>0.360054</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>7.212751</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3.878306</v>
       </c>
       <c r="G17" t="n">
-        <v>0.749743</v>
+        <v>-6.852697</v>
       </c>
       <c r="H17" t="n">
-        <v>0.749743</v>
+        <v>-3.518252</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE129A01019</t>
+          <t>INE280A01028</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GAIL (India) Limited</t>
+          <t>Titan Company Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1007,27 +1007,27 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.93265</v>
       </c>
       <c r="F18" t="n">
-        <v>1.719372</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-2.93265</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.719372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE044A01036</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sun Pharmaceutical Industries Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1039,27 +1039,27 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>6.482575</v>
       </c>
       <c r="F19" t="n">
-        <v>3.422733</v>
+        <v>6.614819</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-6.482575</v>
       </c>
       <c r="H19" t="n">
-        <v>-3.422733</v>
+        <v>-6.614819</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE0U4701011</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Digitide Solutions Limited</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1071,27 +1071,27 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.680464</v>
       </c>
       <c r="F20" t="n">
-        <v>1.048161</v>
+        <v>5.204439</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.680464</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.048161</v>
+        <v>-5.204439</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE0CZ201020</t>
+          <t>INE237A01028</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ANTHEM BIOSCIENCES LIMITED</t>
+          <t>Kotak Mahindra Bank Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1103,27 +1103,27 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>5.865315</v>
+        <v>3.701086</v>
       </c>
       <c r="F21" t="n">
-        <v>6.446925</v>
+        <v>3.462638</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.865315</v>
+        <v>-3.701086</v>
       </c>
       <c r="H21" t="n">
-        <v>-6.446925</v>
+        <v>-3.462638</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Tata Consumer Products Ltd</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1135,27 +1135,27 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.098166</v>
+        <v>1.687128</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.608529</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.098166</v>
+        <v>-1.687128</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.608529</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE424H01027</t>
+          <t>INE423A20016</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SUN TV Network Limited</t>
+          <t>Adani Enterprises Limited Rights</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1170,24 +1170,24 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3.186287</v>
+        <v>0.098166</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-3.186287</v>
+        <v>-0.098166</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE647A01010</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SRF Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1199,27 +1199,27 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>2.683271</v>
+        <v>0.749743</v>
       </c>
       <c r="F24" t="n">
-        <v>2.639061</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.683271</v>
+        <v>-0.749743</v>
       </c>
       <c r="H24" t="n">
-        <v>-2.639061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE062A01020</t>
+          <t>INE0CZ201020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>State Bank of India</t>
+          <t>ANTHEM BIOSCIENCES LIMITED</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1234,13 +1234,109 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.063583</v>
+        <v>5.865315</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-3.063583</v>
+        <v>-5.865315</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>INE647A01010</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SRF Limited</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.683271</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-2.683271</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>INE094A01015</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Hindustan Petroleum Corporation Ltd</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.976955</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.976955</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>INE030A01027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Hindustan Unilever Limited</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.46324</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.46324</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/mf-intelligence/data/processed/quant/quant_Momentum_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Momentum_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,25 +451,30 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Nov_2025</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Oct_2025</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -491,21 +496,26 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>9.564712</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9.564712</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>9.564712</v>
       </c>
+      <c r="I2" t="n">
+        <v>9.564712</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -523,21 +533,26 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>8.956498</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8.956498</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>8.956498</v>
       </c>
+      <c r="I3" t="n">
+        <v>8.956498</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -555,20 +570,25 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>8.873132999999999</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.170431000000001</v>
       </c>
-      <c r="F4" t="n">
-        <v>4.216446</v>
-      </c>
       <c r="G4" t="n">
+        <v>4.50724</v>
+      </c>
+      <c r="H4" t="n">
         <v>-0.2972980000000014</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.656686999999999</v>
+      <c r="I4" t="n">
+        <v>4.365892999999999</v>
       </c>
     </row>
     <row r="5">
@@ -587,20 +607,25 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>8.520021</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>9.898523000000001</v>
       </c>
-      <c r="F5" t="n">
-        <v>9.044435999999999</v>
-      </c>
       <c r="G5" t="n">
+        <v>9.050034999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>-1.378502000000001</v>
       </c>
-      <c r="H5" t="n">
-        <v>-0.5244149999999994</v>
+      <c r="I5" t="n">
+        <v>-0.5300139999999995</v>
       </c>
     </row>
     <row r="6">
@@ -619,20 +644,25 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>6.533598</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5.966757</v>
       </c>
-      <c r="F6" t="n">
-        <v>5.997543</v>
-      </c>
       <c r="G6" t="n">
+        <v>5.470548</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.5668409999999993</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.5360549999999993</v>
+      <c r="I6" t="n">
+        <v>1.06305</v>
       </c>
     </row>
     <row r="7">
@@ -651,20 +681,25 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>5.842646</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>6.487632</v>
       </c>
-      <c r="F7" t="n">
-        <v>8.031215</v>
-      </c>
       <c r="G7" t="n">
+        <v>8.581283000000001</v>
+      </c>
+      <c r="H7" t="n">
         <v>-0.6449859999999994</v>
       </c>
-      <c r="H7" t="n">
-        <v>-2.188568999999999</v>
+      <c r="I7" t="n">
+        <v>-2.738637000000001</v>
       </c>
     </row>
     <row r="8">
@@ -683,20 +718,25 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>5.796873</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.543845</v>
       </c>
-      <c r="F8" t="n">
-        <v>5.477494</v>
-      </c>
       <c r="G8" t="n">
+        <v>5.152885</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.2530279999999996</v>
       </c>
-      <c r="H8" t="n">
-        <v>0.3193789999999996</v>
+      <c r="I8" t="n">
+        <v>0.6439879999999993</v>
       </c>
     </row>
     <row r="9">
@@ -715,20 +755,25 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Adding Consistently</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>3.971147</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.604163</v>
       </c>
-      <c r="F9" t="n">
-        <v>3.392926</v>
-      </c>
       <c r="G9" t="n">
+        <v>3.266884</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.3669840000000004</v>
       </c>
-      <c r="H9" t="n">
-        <v>0.5782210000000001</v>
+      <c r="I9" t="n">
+        <v>0.7042630000000001</v>
       </c>
     </row>
     <row r="10">
@@ -747,21 +792,26 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>3.67925</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.67925</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>3.67925</v>
       </c>
+      <c r="I10" t="n">
+        <v>3.67925</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -779,21 +829,26 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>2.929109</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.929109</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>2.929109</v>
       </c>
+      <c r="I11" t="n">
+        <v>2.929109</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -811,21 +866,26 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>2.211141</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.211141</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>2.211141</v>
       </c>
+      <c r="I12" t="n">
+        <v>2.211141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -843,21 +903,26 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>1.753087</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.753087</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>1.753087</v>
       </c>
+      <c r="I13" t="n">
+        <v>1.753087</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,19 +940,24 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Reducing</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>1.452308</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.504776</v>
       </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
         <v>-0.05246799999999996</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>1.452308</v>
       </c>
     </row>
@@ -907,21 +977,26 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
         <v>1.256642</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.256642</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>1.256642</v>
       </c>
+      <c r="I15" t="n">
+        <v>1.256642</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -939,21 +1014,26 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Fresh Entry</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
         <v>0.897848</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.897848</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0.897848</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.897848</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -971,31 +1051,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Reducing Consistently</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
         <v>0.360054</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>7.212751</v>
       </c>
-      <c r="F17" t="n">
-        <v>3.878306</v>
-      </c>
       <c r="G17" t="n">
+        <v>3.452509</v>
+      </c>
+      <c r="H17" t="n">
         <v>-6.852697</v>
       </c>
-      <c r="H17" t="n">
-        <v>-3.518252</v>
+      <c r="I17" t="n">
+        <v>-3.092455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE280A01028</t>
+          <t>INE044A01036</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Titan Company Limited</t>
+          <t>Sun Pharmaceutical Industries Limited</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1003,31 +1088,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>2.93265</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.93265</v>
+        <v>3.422733</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-3.422733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INE271C01023</t>
+          <t>INE647A01010</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DLF Limited</t>
+          <t>SRF Limited</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1035,31 +1125,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>0</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>6.482575</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.614819</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.482575</v>
+        <v>2.639061</v>
       </c>
       <c r="H19" t="n">
-        <v>-6.614819</v>
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-2.639061</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INE245A01021</t>
+          <t>INE467B01029</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tata Power Company Limited</t>
+          <t>Tata Consultancy Services Limited</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1067,31 +1162,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>3.680464</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.204439</v>
+        <v>0.749743</v>
       </c>
       <c r="G20" t="n">
-        <v>-3.680464</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5.204439</v>
+        <v>-0.749743</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INE237A01028</t>
+          <t>INE424H01027</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Kotak Mahindra Bank Limited</t>
+          <t>SUN TV Network Limited</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1099,31 +1199,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>0</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>3.701086</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3.462638</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.701086</v>
+        <v>3.186287</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.462638</v>
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-3.186287</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE062A01020</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Tata Consumer Products Ltd</t>
+          <t>State Bank of India</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1131,31 +1236,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>0</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>1.687128</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.608529</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.687128</v>
+        <v>3.063583</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.608529</v>
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-3.063583</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE423A20016</t>
+          <t>INE094A01015</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Adani Enterprises Limited Rights</t>
+          <t>Hindustan Petroleum Corporation Ltd</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1163,31 +1273,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>0</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.098166</v>
+        <v>2.976955</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.098166</v>
+        <v>-2.976955</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE467B01029</t>
+          <t>INE129A01019</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tata Consultancy Services Limited</t>
+          <t>GAIL (India) Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1195,31 +1310,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>0.749743</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.749743</v>
+        <v>1.719372</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-1.719372</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE0CZ201020</t>
+          <t>INE280A01028</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ANTHEM BIOSCIENCES LIMITED</t>
+          <t>Titan Company Limited</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1227,31 +1347,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>0</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>5.865315</v>
+        <v>2.93265</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.865315</v>
+        <v>-2.93265</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE647A01010</t>
+          <t>INE271C01023</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SRF Limited</t>
+          <t>DLF Limited</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,31 +1384,36 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2.683271</v>
+        <v>6.482575</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.791959</v>
       </c>
       <c r="H26" t="n">
-        <v>-2.683271</v>
+        <v>-6.482575</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-6.791959</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE094A01015</t>
+          <t>INE245A01021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hindustan Petroleum Corporation Ltd</t>
+          <t>Tata Power Company Limited</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1291,51 +1421,209 @@
           <t>quant Momentum Fund</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>0</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>2.976955</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3.680464</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.976955</v>
+        <v>7.396243</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-3.680464</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-7.396243</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>INE0CZ201020</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ANTHEM BIOSCIENCES LIMITED</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>6.446925</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-6.446925</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>INE237A01028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Kotak Mahindra Bank Limited</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3.701086</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-3.701086</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>INE0U4701011</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Digitide Solutions Limited</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.048161</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-1.048161</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>INE192A01025</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Tata Consumer Products Ltd</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.687128</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1.687128</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>INE030A01027</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Hindustan Unilever Limited</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>quant Momentum Fund</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Complete Exit</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.46324</v>
       </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>-1.46324</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/mf-intelligence/data/processed/quant/quant_Momentum_Fund_Equity_Holdings_Comparison.xlsx
+++ b/mf-intelligence/data/processed/quant/quant_Momentum_Fund_Equity_Holdings_Comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,35 +446,40 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Industry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Mutual Fund</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Jan_2026</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Dec_2025</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Oct_2025</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MoM</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>QoQ</t>
         </is>
@@ -493,29 +498,34 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.564712</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.564712</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>9.564712</v>
       </c>
+      <c r="J2" t="n">
+        <v>9.564712</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,29 +540,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8.956498</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8.956498</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>8.956498</v>
       </c>
+      <c r="J3" t="n">
+        <v>8.956498</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,27 +582,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Metals &amp; Minerals Trading</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8.873132999999999</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9.170431000000001</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.50724</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>-0.2972980000000014</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>4.365892999999999</v>
       </c>
     </row>
@@ -604,27 +624,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Finance</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>8.520021</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>9.898523000000001</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>9.050034999999999</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>-1.378502000000001</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>-0.5300139999999995</v>
       </c>
     </row>
@@ -641,27 +666,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>6.533598</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>5.966757</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>5.470548</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>0.5668409999999993</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>1.06305</v>
       </c>
     </row>
@@ -678,27 +708,32 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>5.842646</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>6.487632</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>8.581283000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>-0.6449859999999994</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>-2.738637000000001</v>
       </c>
     </row>
@@ -715,27 +750,32 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>5.796873</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>5.543845</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>5.152885</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>0.2530279999999996</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.6439879999999993</v>
       </c>
     </row>
@@ -752,27 +792,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Automobiles</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Adding Consistently</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>3.971147</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>3.604163</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>3.266884</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>0.3669840000000004</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.7042630000000001</v>
       </c>
     </row>
@@ -789,29 +834,34 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3.67925</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3.67925</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>3.67925</v>
       </c>
+      <c r="J10" t="n">
+        <v>3.67925</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -826,29 +876,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Beverages</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>2.929109</v>
       </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.929109</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>2.929109</v>
       </c>
+      <c r="J11" t="n">
+        <v>2.929109</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -863,29 +918,34 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Consumable Fuels</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>2.211141</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.211141</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>2.211141</v>
       </c>
+      <c r="J12" t="n">
+        <v>2.211141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -900,29 +960,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Financial Technology (Fintech)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1.753087</v>
       </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.753087</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1.753087</v>
       </c>
+      <c r="J13" t="n">
+        <v>1.753087</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -937,27 +1002,32 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Reducing</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>1.452308</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1.504776</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>-0.05246799999999996</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>1.452308</v>
       </c>
     </row>
@@ -974,29 +1044,34 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Capital Markets</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1.256642</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1.256642</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1.256642</v>
       </c>
+      <c r="J15" t="n">
+        <v>1.256642</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1011,29 +1086,34 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Personal Products</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Fresh Entry</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.897848</v>
       </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.897848</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0.897848</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.897848</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1048,27 +1128,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Auto Components</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Reducing Consistently</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.360054</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>7.212751</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>3.452509</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>-6.852697</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>-3.092455</v>
       </c>
     </row>
@@ -1085,27 +1170,32 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>3.422733</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
         <v>-3.422733</v>
       </c>
     </row>
@@ -1122,27 +1212,32 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Chemicals &amp; Petrochemicals</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.639061</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>-2.639061</v>
       </c>
     </row>
@@ -1159,27 +1254,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>IT - Software</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.749743</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>-0.749743</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1196,27 +1296,32 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Entertainment</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
         <v>3.186287</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
         <v>-3.186287</v>
       </c>
     </row>
@@ -1233,27 +1338,32 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.063583</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>-3.063583</v>
       </c>
     </row>
@@ -1270,27 +1380,32 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Petroleum Products</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.976955</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>-2.976955</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1307,27 +1422,32 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Gas</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>1.719372</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>-1.719372</v>
       </c>
     </row>
@@ -1344,27 +1464,32 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Consumer Durables</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.93265</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>-2.93265</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,27 +1506,32 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Realty</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>6.482575</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>6.791959</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>-6.482575</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>-6.791959</v>
       </c>
     </row>
@@ -1418,27 +1548,32 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Power</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
       <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>3.680464</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>7.396243</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>-3.680464</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>-7.396243</v>
       </c>
     </row>
@@ -1455,27 +1590,32 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Pharmaceuticals &amp; Biotechnology</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
         <v>6.446925</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>-6.446925</v>
       </c>
     </row>
@@ -1492,27 +1632,32 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Banks</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>3.701086</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>-3.701086</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,27 +1674,32 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>IT - Services</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
         <v>1.048161</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
         <v>-1.048161</v>
       </c>
     </row>
@@ -1566,27 +1716,32 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Agricultural Food &amp; other Products</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.687128</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>-1.687128</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1603,27 +1758,32 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>quant Momentum Fund</t>
+          <t>Diversified FMCG</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>quant Momentum Fund</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>Complete Exit</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>1.46324</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>-1.46324</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>0</v>
       </c>
     </row>
